--- a/3_2_multi_programmes_detect/data/un/un实验结果.xlsx
+++ b/3_2_multi_programmes_detect/data/un/un实验结果.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>VirusTotal</t>
-  </si>
-  <si>
-    <t>malware</t>
-  </si>
-  <si>
-    <t>VxStream Sandbox</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>样本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +38,30 @@
   </si>
   <si>
     <t>fft</t>
+  </si>
+  <si>
+    <t>choleesky</t>
+  </si>
+  <si>
+    <t>luc</t>
+  </si>
+  <si>
+    <t>lunc</t>
+  </si>
+  <si>
+    <t>oceanc</t>
+  </si>
+  <si>
+    <t>oceannc</t>
+  </si>
+  <si>
+    <t>radix</t>
+  </si>
+  <si>
+    <t>watern</t>
+  </si>
+  <si>
+    <t>waters</t>
   </si>
 </sst>
 </file>
@@ -387,7 +402,7 @@
   <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -405,31 +420,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>4123.8765000000003</v>
@@ -446,81 +455,145 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4123.8765000000003</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4123.8765000000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4123.8765000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4123.8765000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4123.8765000000003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4123.8765000000003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4123.8765000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4123.8765000000003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
